--- a/docentes/Medina Tolentino Elio Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio Estadisticos 2020.xlsx
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1031,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1054,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1100,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
